--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-4副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-4副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="配置检查" sheetId="6" r:id="rId8"/>
     <sheet name="通用技能说明" sheetId="16" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1205">
   <si>
     <t>caseID</t>
   </si>
@@ -3039,10 +3039,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>暗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物释放技能magicEarthMedium,查看挂点情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3898,10 +3894,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bossAmute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，举起手中的道具，砸，1.0秒时击中对手</t>
   </si>
   <si>
@@ -4094,110 +4086,400 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>群体物理吸收和法术吸收护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果测试-buff-物理吸收护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加物理吸收护盾（debuffAttack）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看护盾吸收量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时存在一个，后上的顶替前一个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加法术吸收护盾（debuffAttack）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果测试-buff-法术吸收护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-ultAmute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全员身前均浮现该盾牌。</t>
+  </si>
+  <si>
+    <t>查看技能的命中特效-物理吸收护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚气时有水流状特效从背后流出分别缠绕双手流向手掌，施法时手掌上的水流交汇浮于胸前，在溅射中形成浅蓝色半透明盾牌。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能的命中特效-法术吸收护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上盾时有“腾”的一声</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到致命伤害时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对局，使用对目标造成致命伤害，查看被动技能触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发被动技能psvAmute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发血量置数effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看血量置数effect触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量置为血量上限的15%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量置为当前血量上限的15%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss不受伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不关联boss掉血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入boss对局，查看混沌技能释放情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿穆特ai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据AI释放技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与attackSmashSlight逻辑一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与magicWaterSlight逻辑一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss释放attackSmashSlight技能查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss释放magicWaterSlight技能查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss释放defend技能查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss释放大招，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与ultAmute逻辑一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss释放lazy技能，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与lazy逻辑一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物释放技能magicWaterSlight,查看挂点情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>群体物理吸收和法术吸收护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果测试-buff-物理吸收护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加物理吸收护盾（debuffAttack）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>absorb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看护盾吸收量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时存在一个，后上的顶替前一个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加法术吸收护盾（debuffAttack）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果测试-buff-法术吸收护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物技能-ultAmute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全员身前均浮现该盾牌。</t>
-  </si>
-  <si>
-    <t>查看技能的命中特效-物理吸收护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚气时有水流状特效从背后流出分别缠绕双手流向手掌，施法时手掌上的水流交汇浮于胸前，在溅射中形成浅蓝色半透明盾牌。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能的命中特效-法术吸收护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上盾时有“腾”的一声</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到致命伤害时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入对局，使用对目标造成致命伤害，查看被动技能触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发被动技能psvAmute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发血量置数effect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看血量置数effect触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量置为血量上限的15%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量置为当前血量上限的15%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss不受伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不关联boss掉血</t>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃表现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加被动buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对局，查看阿穆特添加被动buff时触发效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能-psvAmute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_shifa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMinghe14Amute</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿穆特</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物显示名称-中文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物显示名称-英文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammut</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿穆特测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4205,7 +4487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4542,8 +4824,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4744,6 +5034,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5137,7 +5439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5382,6 +5684,30 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="145">
     <cellStyle name="20% - 着色 1" xfId="109" builtinId="30" customBuiltin="1"/>
@@ -5530,7 +5856,7 @@
     <cellStyle name="着色 6" xfId="128" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="142"/>
   </cellStyles>
-  <dxfs count="241">
+  <dxfs count="266">
     <dxf>
       <font>
         <b/>
@@ -5571,6 +5897,201 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -6154,20 +6675,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -7134,6 +7641,20 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -7470,6 +7991,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182141</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>330201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430250" y="1339851"/>
+          <a:ext cx="2461791" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7738,8 +8302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7775,7 +8339,7 @@
         <v>42222</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>28</v>
@@ -7784,11 +8348,19 @@
       <c r="F23" s="28"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="4">
+        <v>42241</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>1203</v>
+      </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>2973</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -8245,7 +8817,7 @@
         <v>29</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H25" s="36"/>
     </row>
@@ -9095,41 +9667,41 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="240" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="238" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="235" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="234" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="232" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9426,7 +9998,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H17" s="36"/>
     </row>
@@ -10277,41 +10849,41 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="K107:K118 H4:H23">
-    <cfRule type="cellIs" dxfId="231" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:K118 H4:H23">
-    <cfRule type="cellIs" dxfId="229" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H113">
-    <cfRule type="cellIs" dxfId="228" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H113">
-    <cfRule type="cellIs" dxfId="226" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H119">
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H119">
-    <cfRule type="cellIs" dxfId="223" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10323,8 +10895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -10417,7 +10989,9 @@
       <c r="G4" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
@@ -10430,7 +11004,9 @@
       <c r="G5" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
@@ -10448,7 +11024,9 @@
       <c r="G6" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -10461,7 +11039,9 @@
       <c r="G7" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -10491,7 +11071,9 @@
       <c r="G9" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
@@ -10504,7 +11086,9 @@
       <c r="G10" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
@@ -10517,7 +11101,9 @@
       <c r="G11" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -10530,7 +11116,9 @@
       <c r="G12" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
@@ -10543,7 +11131,9 @@
       <c r="G13" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="14" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -10561,7 +11151,9 @@
       <c r="G14" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -10591,7 +11183,9 @@
       <c r="G16" s="35" t="s">
         <v>802</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="36" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -10604,9 +11198,11 @@
         <v>29</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>870</v>
-      </c>
-      <c r="H17" s="36"/>
+        <v>869</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
@@ -10619,9 +11215,11 @@
         <v>117</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>871</v>
-      </c>
-      <c r="H18" s="36"/>
+        <v>870</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
@@ -10675,7 +11273,9 @@
       <c r="G22" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="36" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -10967,7 +11567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
       <c r="F49" s="10" t="s">
         <v>144</v>
@@ -10976,7 +11576,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
       <c r="F50" s="10" t="s">
         <v>145</v>
@@ -10985,7 +11585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
       <c r="D51" s="6">
         <v>6</v>
@@ -11000,7 +11600,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
       <c r="F52" s="10" t="s">
         <v>144</v>
@@ -11009,7 +11609,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="F53" s="10" t="s">
         <v>145</v>
       </c>
@@ -11017,7 +11617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
@@ -11037,7 +11637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="F56" s="10" t="s">
         <v>159</v>
       </c>
@@ -11045,7 +11645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E57" s="18"/>
       <c r="F57" s="10" t="s">
         <v>160</v>
@@ -11054,7 +11654,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E58" s="18"/>
       <c r="F58" s="10" t="s">
         <v>161</v>
@@ -11063,7 +11663,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E59" s="18"/>
       <c r="F59" s="10" t="s">
         <v>162</v>
@@ -11072,12 +11672,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>17</v>
       </c>
@@ -11088,7 +11688,7 @@
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -11096,7 +11696,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>16</v>
       </c>
@@ -11110,13 +11710,16 @@
         <v>536</v>
       </c>
       <c r="F63" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>1039</v>
       </c>
-      <c r="G63" s="17" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -11125,10 +11728,13 @@
         <v>537</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8">
@@ -11141,10 +11747,13 @@
         <v>822</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -11153,22 +11762,28 @@
         <v>539</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8">
@@ -11181,10 +11796,13 @@
         <v>541</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -11193,10 +11811,16 @@
         <v>23</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I69" s="10">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8">
@@ -11209,47 +11833,59 @@
         <v>543</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8">
         <v>5</v>
       </c>
       <c r="E73" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>1051</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -11258,10 +11894,13 @@
         <v>822</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -11270,24 +11909,30 @@
         <v>539</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8">
         <v>6</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8">
@@ -11300,16 +11945,20 @@
       <c r="G77" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>25</v>
       </c>
@@ -11328,8 +11977,11 @@
       <c r="G79" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
         <v>26</v>
@@ -11337,13 +11989,17 @@
       <c r="G80" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-    </row>
-    <row r="82" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>22</v>
       </c>
@@ -11362,13 +12018,17 @@
       <c r="G82" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="8">
         <v>2</v>
       </c>
@@ -11381,23 +12041,26 @@
       <c r="G84" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11439,55 +12102,63 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="K109:K111 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="222" priority="20" operator="equal">
+  <conditionalFormatting sqref="K109:K111 H15:H23 H4:H7">
+    <cfRule type="cellIs" dxfId="247" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:K111 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
+  <conditionalFormatting sqref="K109:K111 H15:H23 H4:H7">
+    <cfRule type="cellIs" dxfId="245" priority="24" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H112">
-    <cfRule type="cellIs" dxfId="219" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H112">
-    <cfRule type="cellIs" dxfId="217" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="12" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H84">
+    <cfRule type="cellIs" dxfId="238" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="5" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="213" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11561,7 +12232,7 @@
     </row>
     <row r="3" spans="1:10" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
@@ -11569,22 +12240,22 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>873</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>874</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>876</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11593,22 +12264,22 @@
         <v>209</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="72"/>
     </row>
@@ -11620,7 +12291,7 @@
         <v>211</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11628,10 +12299,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>883</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>884</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>547</v>
@@ -11640,19 +12311,19 @@
     <row r="10" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>885</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>887</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
@@ -11667,7 +12338,7 @@
     <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>549</v>
@@ -11676,7 +12347,7 @@
     <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>550</v>
@@ -11703,7 +12374,7 @@
     <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>553</v>
@@ -11730,7 +12401,7 @@
     <row r="20" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>555</v>
@@ -11739,10 +12410,10 @@
     <row r="21" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11756,22 +12427,22 @@
         <v>235</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>896</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>239</v>
@@ -11784,20 +12455,20 @@
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11805,7 +12476,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>228</v>
@@ -11817,16 +12488,16 @@
         <v>227</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11839,7 +12510,7 @@
     </row>
     <row r="31" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
@@ -11847,20 +12518,20 @@
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D32" s="75">
         <v>1</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F32" s="71"/>
       <c r="G32" s="71" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11870,13 +12541,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="71" t="s">
+        <v>909</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>910</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="G33" s="71" t="s">
         <v>911</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11885,10 +12556,10 @@
       <c r="D34" s="75"/>
       <c r="E34" s="71"/>
       <c r="F34" s="71" t="s">
+        <v>912</v>
+      </c>
+      <c r="G34" s="71" t="s">
         <v>913</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11898,10 +12569,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="71" t="s">
+        <v>914</v>
+      </c>
+      <c r="F35" s="71" t="s">
         <v>915</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>916</v>
       </c>
       <c r="G35" s="71" t="s">
         <v>78</v>
@@ -11913,10 +12584,10 @@
       <c r="D36" s="75"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="G36" s="71" t="s">
         <v>917</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11926,13 +12597,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="71" t="s">
+        <v>918</v>
+      </c>
+      <c r="F37" s="71" t="s">
         <v>919</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="G37" s="71" t="s">
         <v>920</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11941,10 +12612,10 @@
       <c r="D38" s="75"/>
       <c r="E38" s="71"/>
       <c r="F38" s="71" t="s">
+        <v>921</v>
+      </c>
+      <c r="G38" s="71" t="s">
         <v>922</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11953,10 +12624,10 @@
       <c r="D39" s="75"/>
       <c r="E39" s="71"/>
       <c r="F39" s="71" t="s">
+        <v>923</v>
+      </c>
+      <c r="G39" s="71" t="s">
         <v>924</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11966,13 +12637,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="71" t="s">
+        <v>925</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>915</v>
+      </c>
+      <c r="G40" s="71" t="s">
         <v>926</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>916</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11981,10 +12652,10 @@
       <c r="D41" s="75"/>
       <c r="E41" s="71"/>
       <c r="F41" s="71" t="s">
+        <v>927</v>
+      </c>
+      <c r="G41" s="71" t="s">
         <v>928</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11995,11 +12666,11 @@
         <v>6</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F42" s="71"/>
       <c r="G42" s="71" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -12019,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F44" s="71"/>
       <c r="G44" s="71" t="s">
@@ -12036,7 +12707,7 @@
     </row>
     <row r="46" spans="1:7" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
@@ -12047,22 +12718,22 @@
     <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="36"/>
       <c r="B47" s="36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D47" s="36">
         <v>1</v>
       </c>
       <c r="E47" s="53" t="s">
+        <v>934</v>
+      </c>
+      <c r="F47" s="81" t="s">
         <v>935</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="G47" s="81" t="s">
         <v>936</v>
-      </c>
-      <c r="G47" s="81" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -12072,15 +12743,15 @@
       <c r="D48" s="36"/>
       <c r="E48" s="53"/>
       <c r="F48" s="81" t="s">
+        <v>937</v>
+      </c>
+      <c r="G48" s="81" t="s">
         <v>938</v>
-      </c>
-      <c r="G48" s="81" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
@@ -12088,13 +12759,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="53" t="s">
+        <v>940</v>
+      </c>
+      <c r="F49" s="81" t="s">
         <v>941</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="G49" s="81" t="s">
         <v>942</v>
-      </c>
-      <c r="G49" s="81" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -12104,7 +12775,7 @@
       <c r="D50" s="36"/>
       <c r="E50" s="53"/>
       <c r="F50" s="81" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G50" s="81" t="s">
         <v>769</v>
@@ -12115,29 +12786,29 @@
         <v>3</v>
       </c>
       <c r="E51" s="53" t="s">
+        <v>944</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>945</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>946</v>
       </c>
       <c r="G51" s="74"/>
     </row>
     <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="53"/>
       <c r="F52" s="81" t="s">
+        <v>946</v>
+      </c>
+      <c r="G52" s="81" t="s">
         <v>947</v>
-      </c>
-      <c r="G52" s="81" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E53" s="17"/>
       <c r="F53" s="81" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -12145,11 +12816,11 @@
         <v>1</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="53" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -12157,16 +12828,16 @@
         <v>2</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F55" s="53"/>
       <c r="G55" s="53" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
@@ -12180,19 +12851,19 @@
         <v>33</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="G59" s="23" t="s">
         <v>956</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>957</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="32"/>
@@ -12206,7 +12877,7 @@
         <v>54</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H60" s="13"/>
     </row>
@@ -12235,7 +12906,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H62" s="13"/>
     </row>
@@ -12250,7 +12921,7 @@
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H63" s="13"/>
     </row>
@@ -12266,20 +12937,20 @@
     <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="23" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H65" s="13"/>
     </row>
@@ -12290,11 +12961,11 @@
         <v>2</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H66" s="13"/>
     </row>
@@ -12319,13 +12990,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="73" t="s">
         <v>967</v>
-      </c>
-      <c r="G68" s="73" t="s">
-        <v>968</v>
       </c>
       <c r="H68" s="13"/>
     </row>
@@ -12340,7 +13011,7 @@
         <v>58</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H69" s="13"/>
     </row>
@@ -12355,7 +13026,7 @@
         <v>59</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H70" s="13"/>
     </row>
@@ -12389,16 +13060,16 @@
         <v>33</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>972</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>973</v>
       </c>
       <c r="H73" s="13"/>
     </row>
@@ -12409,7 +13080,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="11"/>
       <c r="F74" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G74" s="79">
         <v>0.99</v>
@@ -12423,10 +13094,10 @@
       <c r="D75" s="8"/>
       <c r="E75" s="11"/>
       <c r="F75" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="G75" s="79" t="s">
         <v>975</v>
-      </c>
-      <c r="G75" s="79" t="s">
-        <v>976</v>
       </c>
       <c r="H75" s="13"/>
     </row>
@@ -12435,10 +13106,10 @@
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
       <c r="F76" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>977</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>978</v>
       </c>
       <c r="H76" s="13"/>
     </row>
@@ -12447,10 +13118,10 @@
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
       <c r="F77" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="G77" s="73" t="s">
         <v>979</v>
-      </c>
-      <c r="G77" s="73" t="s">
-        <v>980</v>
       </c>
       <c r="H77" s="13"/>
     </row>
@@ -12459,7 +13130,7 @@
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>65</v>
@@ -12481,10 +13152,10 @@
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
       <c r="F80" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>982</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>983</v>
       </c>
       <c r="H80" s="13"/>
     </row>
@@ -12495,11 +13166,11 @@
         <v>2</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H81" s="13"/>
     </row>
@@ -12508,7 +13179,7 @@
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="F82" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G82" s="73"/>
     </row>
@@ -12517,10 +13188,10 @@
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="F83" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12528,10 +13199,10 @@
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="F84" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12539,10 +13210,10 @@
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="F85" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>989</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12553,16 +13224,16 @@
     <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>992</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="73"/>
@@ -12574,11 +13245,11 @@
         <v>2</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12588,11 +13259,11 @@
         <v>3</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12606,22 +13277,22 @@
     <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
       </c>
       <c r="E91" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="G91" s="11" t="s">
         <v>1000</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12641,13 +13312,13 @@
         <v>2</v>
       </c>
       <c r="E93" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="G93" s="11" t="s">
         <v>1003</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12656,7 +13327,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G94" s="73"/>
     </row>
@@ -12667,10 +13338,10 @@
         <v>3</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G95" s="73"/>
     </row>
@@ -12680,7 +13351,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G96" s="73"/>
     </row>
@@ -12691,13 +13362,13 @@
         <v>4</v>
       </c>
       <c r="E97" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="G97" s="11" t="s">
         <v>1009</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12720,26 +13391,26 @@
     </row>
     <row r="100" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="58" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B100" s="46"/>
       <c r="D100" s="46"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>1013</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>1014</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -12747,10 +13418,10 @@
         <v>2</v>
       </c>
       <c r="E102" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -12758,7 +13429,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G103" s="66">
         <v>1</v>
@@ -12769,27 +13440,27 @@
         <v>4</v>
       </c>
       <c r="E104" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G104" s="72" t="s">
         <v>1019</v>
-      </c>
-      <c r="G104" s="72" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G106" s="16" t="s">
         <v>1022</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -12797,10 +13468,10 @@
         <v>2</v>
       </c>
       <c r="E107" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G107" s="16" t="s">
         <v>1024</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -12808,7 +13479,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>823</v>
@@ -12816,44 +13487,44 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>1027</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>1028</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="73" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>1031</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E112" s="11"/>
       <c r="F112" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G112" s="73" t="s">
         <v>1033</v>
-      </c>
-      <c r="G112" s="73" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>65</v>
@@ -12862,270 +13533,270 @@
     <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" s="11"/>
       <c r="F114" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G114" s="73"/>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115" s="11"/>
       <c r="F115" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G41:G42">
-    <cfRule type="cellIs" dxfId="210" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="45" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="46" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:D50 A49:C49 D55:F55">
-    <cfRule type="cellIs" dxfId="208" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="60" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45">
-    <cfRule type="cellIs" dxfId="207" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="57" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45 A50:D50 A49:C49 D55:E55">
-    <cfRule type="cellIs" dxfId="206" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="204" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="54" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="55" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="56" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="201" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="199" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="51" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G40 E41:F42">
-    <cfRule type="cellIs" dxfId="198" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="47" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="48" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D42 B32:G39 B43:G46">
-    <cfRule type="cellIs" dxfId="196" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="49" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="50" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="194" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="193" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="191" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="39" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="40" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="41" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="188" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="186" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="36" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="185" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="184" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="182" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="30" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="32" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="179" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="177" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="27" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H61 H64:H72">
-    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H61 H64:H72">
-    <cfRule type="cellIs" dxfId="174" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="24" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H63">
-    <cfRule type="cellIs" dxfId="173" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="23" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H63">
-    <cfRule type="cellIs" dxfId="171" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H78">
-    <cfRule type="cellIs" dxfId="170" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H78">
-    <cfRule type="cellIs" dxfId="168" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="18" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="167" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="165" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="164" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="162" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:G58">
-    <cfRule type="cellIs" dxfId="161" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="158" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="155" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="153" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13432,20 +14103,20 @@
     </row>
     <row r="28" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13453,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>228</v>
@@ -13465,16 +14136,16 @@
         <v>227</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="32" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13744,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F50" s="54" t="s">
         <v>240</v>
@@ -13771,7 +14442,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F52" s="54" t="s">
         <v>240</v>
@@ -13794,7 +14465,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>243</v>
@@ -13819,7 +14490,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>769</v>
@@ -13835,11 +14506,11 @@
         <v>1</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="53" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -13847,11 +14518,11 @@
         <v>2</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F59" s="53"/>
       <c r="G59" s="53" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13861,7 +14532,7 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
@@ -13945,7 +14616,7 @@
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="71" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H66" s="13"/>
     </row>
@@ -14005,7 +14676,7 @@
         <v>74</v>
       </c>
       <c r="G70" s="73" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H70" s="13"/>
     </row>
@@ -14069,7 +14740,7 @@
         <v>33</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -14078,7 +14749,7 @@
         <v>793</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H75" s="13"/>
     </row>
@@ -14089,10 +14760,10 @@
       <c r="D76" s="8"/>
       <c r="E76" s="11"/>
       <c r="F76" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G76" s="73" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H76" s="13"/>
     </row>
@@ -14106,7 +14777,7 @@
         <v>61</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H77" s="13"/>
     </row>
@@ -14170,7 +14841,7 @@
         <v>33</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
@@ -14179,7 +14850,7 @@
         <v>793</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14189,10 +14860,10 @@
       <c r="D84" s="8"/>
       <c r="E84" s="11"/>
       <c r="F84" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G84" s="73" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14203,7 +14874,7 @@
         <v>61</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14350,7 +15021,7 @@
         <v>250</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14376,7 +15047,7 @@
         <v>248</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14396,13 +15067,13 @@
         <v>3</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>250</v>
       </c>
       <c r="G100" s="73" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14422,7 +15093,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>250</v>
@@ -14452,7 +15123,7 @@
         <v>248</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14491,7 +15162,7 @@
     </row>
     <row r="109" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="58" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B109" s="46"/>
       <c r="D109" s="46"/>
@@ -14510,7 +15181,7 @@
         <v>522</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -14543,7 +15214,7 @@
         <v>525</v>
       </c>
       <c r="G113" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -14574,7 +15245,7 @@
         <v>827</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -14675,286 +15346,286 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A34:A46 H34:XFD47 F44:F47 H67:H78">
-    <cfRule type="cellIs" dxfId="150" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="124" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="125" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:E47">
-    <cfRule type="cellIs" dxfId="148" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="122" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="123" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:D43 B34:G38 B40:G40 B39:E39 B44:E44">
-    <cfRule type="cellIs" dxfId="146" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="120" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="121" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="cellIs" dxfId="144" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="116" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="117" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:G41 E42:F43">
-    <cfRule type="cellIs" dxfId="142" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="118" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="119" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="cellIs" dxfId="140" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="114" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="115" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G47">
-    <cfRule type="cellIs" dxfId="138" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="112" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="113" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:D51 A50:C50 G57">
-    <cfRule type="cellIs" dxfId="136" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="111" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:D49 A48:G48">
-    <cfRule type="cellIs" dxfId="135" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="108" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:D49 A48:G48 A51:D51 A50:C50 G57">
-    <cfRule type="cellIs" dxfId="134" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="109" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="110" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="132" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="105" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="106" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="107" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:G49">
-    <cfRule type="cellIs" dxfId="129" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="103" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="104" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:G49">
-    <cfRule type="cellIs" dxfId="127" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="102" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:G50">
-    <cfRule type="cellIs" dxfId="126" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="99" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:G50">
-    <cfRule type="cellIs" dxfId="125" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="100" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="123" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="96" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="97" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="98" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:G51">
-    <cfRule type="cellIs" dxfId="120" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="94" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="95" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:G51">
-    <cfRule type="cellIs" dxfId="118" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="93" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:G52">
-    <cfRule type="cellIs" dxfId="117" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="90" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:G52">
-    <cfRule type="cellIs" dxfId="116" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="114" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="87" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="88" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="89" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:G53">
-    <cfRule type="cellIs" dxfId="111" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:G53">
-    <cfRule type="cellIs" dxfId="109" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="84" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="108" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="72" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="107" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H64">
-    <cfRule type="cellIs" dxfId="105" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="49" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="50" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H64 H67:H78">
-    <cfRule type="cellIs" dxfId="103" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="46" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="cellIs" dxfId="100" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="45" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="99" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="40" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="41" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="97" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="96" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="94" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="36" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:G61">
-    <cfRule type="cellIs" dxfId="93" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="31" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="90" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="88" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="28" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="87" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:F59">
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:E59">
-    <cfRule type="cellIs" dxfId="84" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14965,10 +15636,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -15052,871 +15723,1094 @@
         <v>208</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1057</v>
+        <v>1195</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="72"/>
+        <v>1198</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>546</v>
+        <v>1199</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>545</v>
+        <v>1200</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>212</v>
-      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>1058</v>
+      <c r="H10" s="82" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>1059</v>
+        <v>1056</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I14" s="8">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I15" s="8">
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+      <c r="F18" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G18" s="86" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8">
+      <c r="G22" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H24" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>1062</v>
+        <v>236</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
         <v>1061</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="2:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="F28" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="82"/>
+    </row>
+    <row r="30" spans="2:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="17" t="s">
+      <c r="G30" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="17" t="s">
-        <v>1065</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="D32" s="8">
+      <c r="H31" s="82" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="D33" s="8">
         <v>2</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
-        <v>779</v>
-      </c>
       <c r="G33" s="17" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>1066</v>
+        <v>779</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="8">
+        <v>1073</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I34" s="8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="8">
         <v>3</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>779</v>
-      </c>
       <c r="G36" s="17" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>1067</v>
+        <v>779</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="8">
+        <v>781</v>
+      </c>
+      <c r="H37" s="82" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I38" s="8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="17"/>
-      <c r="F39" s="17" t="s">
-        <v>779</v>
-      </c>
       <c r="G39" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="8">
+        <v>779</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H41" s="82" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="8">
         <v>5</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F42" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
-        <v>779</v>
-      </c>
       <c r="G42" s="18" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="17"/>
       <c r="F43" s="17" t="s">
-        <v>1069</v>
+        <v>779</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+      <c r="H43" s="82" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="2:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="F44" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H44" s="82" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="82"/>
+    </row>
+    <row r="46" spans="2:9" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H46" s="82" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I46" s="8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H47" s="82" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H48" s="82" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>1084</v>
       </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="18" t="s">
+      <c r="F49" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I49" s="8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H50" s="82" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I50" s="8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>1085</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="17" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="17" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="D48" s="8">
-        <v>2</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="F51" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="H51" s="82" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="17"/>
+      <c r="F52" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="H52" s="82" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="8">
+        <v>4</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F53" s="17" t="s">
         <v>835</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="17"/>
-      <c r="F49" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="8">
-        <v>3</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="8">
-        <v>4</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="17"/>
-      <c r="F53" s="17" t="s">
-        <v>779</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="8">
+      <c r="H53" s="82" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="8">
         <v>5</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F54" s="17" t="s">
+      <c r="E55" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G55" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H55" s="82" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="17"/>
+      <c r="F56" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="G55" s="18" t="s">
+      <c r="F58" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="H58" s="82" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I58" s="8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="17"/>
+      <c r="F59" s="17" t="s">
         <v>1071</v>
       </c>
-      <c r="D57" s="8">
+      <c r="G59" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H59" s="82" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D62" s="13">
         <v>1</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="52"/>
-    </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" s="75">
+      <c r="E62" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13">
+        <v>2</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13">
+        <v>3</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13">
+        <v>4</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13">
+        <v>5</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13">
         <v>1</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75">
-        <v>2</v>
-      </c>
-      <c r="E62" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="71" t="s">
+      <c r="E72" s="23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F72" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75">
-        <v>3</v>
-      </c>
-      <c r="E64" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75">
-        <v>4</v>
-      </c>
-      <c r="E66" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75">
-        <v>5</v>
-      </c>
-      <c r="E68" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75">
-        <v>1</v>
-      </c>
-      <c r="E71" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="73" t="s">
+      <c r="G72" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
+      <c r="F73" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="46"/>
+    </row>
+    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C76" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D75" s="36">
+      <c r="D76" s="36">
         <v>1</v>
       </c>
-      <c r="E75" s="53" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F75" s="54" t="s">
+      <c r="E76" s="53" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F76" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="54" t="s">
+      <c r="G76" s="54" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="G76" s="54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="36" t="s">
-        <v>204</v>
-      </c>
+      <c r="H76" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="37"/>
-      <c r="D77" s="8">
-        <v>2</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>1107</v>
-      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G77" s="54" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="36"/>
+        <v>241</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="B78" s="36"/>
       <c r="C78" s="37"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="53"/>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>1169</v>
+      </c>
       <c r="F78" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>783</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I78" s="8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G78" s="54" t="s">
+      <c r="G79" s="54" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D79" s="6">
+      <c r="H79" s="6" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D80" s="6">
         <v>3</v>
       </c>
-      <c r="E79" s="53" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F79" s="15" t="s">
+      <c r="E80" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G79" s="72"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="G80" s="54" t="s">
-        <v>776</v>
+      <c r="G80" s="72"/>
+      <c r="H80" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I80" s="6">
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -15925,638 +16819,769 @@
       <c r="D81" s="8"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>1099</v>
+        <v>797</v>
       </c>
       <c r="G81" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G82" s="54" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="54"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="6" t="s">
+      <c r="H82" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I82" s="6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B84" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="D83" s="36">
+      <c r="D84" s="36">
         <v>1</v>
       </c>
-      <c r="E83" s="53" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D84" s="8">
-        <v>2</v>
-      </c>
       <c r="E84" s="53" t="s">
-        <v>788</v>
-      </c>
-      <c r="F84" s="17"/>
+        <v>1098</v>
+      </c>
+      <c r="F84" s="53"/>
       <c r="G84" s="53" t="s">
-        <v>845</v>
+        <v>1102</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D85" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="53" t="s">
-        <v>1101</v>
+        <v>788</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D86" s="8">
+        <v>3</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="53" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E86" s="53"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
+      <c r="H86" s="6" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="8" t="s">
+      <c r="E87" s="53"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>1</v>
       </c>
-      <c r="E87" s="53" t="s">
+      <c r="E88" s="53" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53" t="s">
         <v>1102</v>
       </c>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D88" s="8">
+      <c r="H88" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D89" s="8">
         <v>2</v>
       </c>
-      <c r="E88" s="53" t="s">
+      <c r="E89" s="53" t="s">
         <v>789</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="53" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E89" s="53" t="s">
-        <v>1103</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="8">
+        <v>3</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="53" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-    </row>
-    <row r="92" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="8">
-        <v>1</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="32"/>
+      <c r="H90" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
     </row>
     <row r="93" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="11"/>
+      <c r="B93" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F93" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I93" s="32">
+        <v>397</v>
+      </c>
     </row>
     <row r="94" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="8"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="13"/>
+      <c r="F94" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="B95" s="6"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
-        <v>777</v>
-      </c>
+      <c r="G95" s="11"/>
       <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="D96" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F96" s="11"/>
-      <c r="G96" s="71" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="11"/>
+      <c r="D97" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F97" s="11"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="71" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I97" s="10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="6"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D99" s="8">
         <v>1</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="23" t="s">
+      <c r="F99" s="11"/>
+      <c r="G99" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8" t="s">
+      <c r="H99" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D100" s="8">
+      <c r="C101" s="23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D101" s="8">
         <v>1</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E101" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="G100" s="73" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
+      <c r="G101" s="73" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H101" s="13"/>
-    </row>
-    <row r="102" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="F102" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G102" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="11">
+        <v>9</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="F103" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I103" s="11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="F104" s="10" t="s">
-        <v>66</v>
+      <c r="F104" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I104" s="11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="F105" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="F106" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G106" s="73"/>
-    </row>
-    <row r="107" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+      <c r="F107" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G107" s="73"/>
+      <c r="H107" s="88" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="11"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="F108" s="10"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="8"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D109" s="8">
+      <c r="C110" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D110" s="8">
         <v>1</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E110" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="G109" s="73" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="F110" s="10" t="s">
+      <c r="G110" s="73" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I110" s="10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="F111" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G110" s="11" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G111" s="73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="11">
+        <v>10</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I112" s="10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="8"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8"/>
       <c r="E113" s="11"/>
-      <c r="F113" s="10" t="s">
-        <v>66</v>
+      <c r="F113" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I113" s="10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="8"/>
       <c r="C114" s="11"/>
       <c r="D114" s="8"/>
       <c r="E114" s="11"/>
       <c r="F114" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H114" s="11"/>
-    </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="8"/>
       <c r="C115" s="11"/>
       <c r="D115" s="8"/>
       <c r="E115" s="11"/>
       <c r="F115" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G115" s="73"/>
-    </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="8"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8"/>
       <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G116" s="73"/>
+      <c r="H116" s="88" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D118" s="8">
         <v>1</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E118" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="73"/>
-    </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="D118" s="8">
-        <v>2</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>801</v>
-      </c>
       <c r="F118" s="11"/>
-      <c r="G118" s="73"/>
-    </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="89" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="D120" s="8">
+        <v>3</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="6"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="1:9" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D122" s="8">
         <v>1</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E122" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F122" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G121" s="23" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G122" s="73"/>
-    </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H122" s="87" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I122" s="10">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
-      <c r="D123" s="8">
-        <v>2</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>798</v>
-      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G123" s="73"/>
+      <c r="H123" s="87"/>
+    </row>
+    <row r="124" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="11"/>
+      <c r="D124" s="8">
+        <v>2</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="F124" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G124" s="73"/>
-    </row>
-    <row r="125" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="H124" s="87"/>
+    </row>
+    <row r="125" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
-      <c r="D125" s="8">
-        <v>3</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>1120</v>
-      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="G125" s="73"/>
+      <c r="H125" s="87"/>
+    </row>
+    <row r="126" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="11"/>
+      <c r="D126" s="8">
+        <v>3</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>1116</v>
+      </c>
       <c r="F126" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G126" s="73"/>
-    </row>
-    <row r="127" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H126" s="87"/>
+    </row>
+    <row r="127" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
-      <c r="D127" s="8">
-        <v>3</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>1122</v>
-      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G127" s="73"/>
-    </row>
-    <row r="128" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="87"/>
+    </row>
+    <row r="128" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="11"/>
+      <c r="D128" s="8">
+        <v>3</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>1118</v>
+      </c>
       <c r="F128" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G128" s="73"/>
-    </row>
-    <row r="129" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="87"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
-      <c r="D129" s="8">
-        <v>4</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G129" s="73"/>
+      <c r="H129" s="87"/>
+    </row>
+    <row r="130" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="11"/>
+      <c r="D130" s="8">
+        <v>4</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>249</v>
+      </c>
       <c r="F130" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G130" s="73"/>
-    </row>
-    <row r="131" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H130" s="87"/>
+    </row>
+    <row r="131" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="8"/>
       <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-    </row>
-    <row r="132" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G131" s="73"/>
+      <c r="H131" s="87"/>
+    </row>
+    <row r="132" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="8"/>
@@ -16564,7 +17589,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="8"/>
@@ -16572,470 +17597,635 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="58" t="s">
-        <v>865</v>
-      </c>
-      <c r="B134" s="46"/>
-      <c r="D134" s="46"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="6" t="s">
+    <row r="134" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:10" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B135" s="46"/>
+      <c r="D135" s="46"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D136" s="6">
         <v>1</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E136" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G136" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D138" s="6">
+        <v>3</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="G138" s="80">
+        <v>1</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D139" s="6">
+        <v>4</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G139" s="72" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I139" s="6">
+        <v>399</v>
+      </c>
+      <c r="J139" s="83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D140" s="6">
+        <v>5</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="G140" s="72" t="s">
+        <v>833</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I140" s="6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D142" s="6">
+        <v>1</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D143" s="6">
+        <v>2</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="G143" s="16" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D136" s="6">
-        <v>2</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="G136" s="16" t="s">
+      <c r="H143" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D144" s="6">
+        <v>3</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I144" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D137" s="6">
-        <v>3</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="G137" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D138" s="6">
-        <v>4</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="G138" s="72" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D139" s="6">
-        <v>5</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="G139" s="72" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="B141" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G141" s="16" t="s">
+      <c r="F146" s="11"/>
+      <c r="G146" s="73" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D142" s="6">
-        <v>2</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D143" s="6">
-        <v>3</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="73" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I146" s="6">
+        <v>399</v>
+      </c>
+      <c r="J146" s="83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E148" s="6"/>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="84" t="s">
+        <v>1179</v>
+      </c>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F149" s="10"/>
-      <c r="G149" s="66"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D149" s="6">
+        <v>1</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I149" s="6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F150" s="10"/>
       <c r="G150" s="66"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G151" s="11"/>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G151" s="66"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G152" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A61:A73 H61:XFD74 F71:F74 H97:H102">
-    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
+  <phoneticPr fontId="40" type="noConversion"/>
+  <conditionalFormatting sqref="F72:F75 A62:A74 H62:XFD75 B67:D70 B71:G71 H98:H131">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:E74">
-    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
+  <conditionalFormatting sqref="B73:E75">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:D70 B61:G65 B67:G67 B66:E66 B71:E71">
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+  <conditionalFormatting sqref="B62:G66 B72:E72">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:G70">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="99" priority="107" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="108" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:G68 E69:F70">
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+  <conditionalFormatting sqref="E67:G67 E68:F68 E69:E70">
+    <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="110" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:G66">
-    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+  <conditionalFormatting sqref="G73:G75">
+    <cfRule type="cellIs" dxfId="95" priority="103" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:G74">
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+  <conditionalFormatting sqref="A79:D79 A78:C78 D84 E88:F88 G83">
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:D77 A76:G76">
+    <cfRule type="cellIs" dxfId="92" priority="99" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:D77 A76:G76 A79:D79 A78:C78 D84 E88 G83">
+    <cfRule type="cellIs" dxfId="91" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="97" operator="equal">
       <formula>"P"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="98" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D78 A77:C77 D83 E87:F87 G82">
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="86" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="84" priority="93" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76 A75:G75">
-    <cfRule type="cellIs" dxfId="67" priority="72" operator="equal">
+  <conditionalFormatting sqref="E78:G78">
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76 A75:G75 A78:D78 A77:C77 D83 E87 G82">
-    <cfRule type="cellIs" dxfId="66" priority="73" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E78:G78">
+    <cfRule type="cellIs" dxfId="82" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="68" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="57" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="52" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
-      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="87" operator="equal">
       <formula>"B"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="88" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="89" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F79:G79">
+    <cfRule type="cellIs" dxfId="77" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+  <conditionalFormatting sqref="F79:G79">
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:F83 E84">
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+  <conditionalFormatting sqref="E84:F84 E85">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E84:E85">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H94">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="65" priority="62" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93:H95">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H94 H97:H102">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+  <conditionalFormatting sqref="H93:H95 H98:H131">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H96">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+  <conditionalFormatting sqref="H96:H97">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H96">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+  <conditionalFormatting sqref="H96:H97">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+  <conditionalFormatting sqref="B92:G92">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+  <conditionalFormatting sqref="G82">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:G91">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:G69 F70">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H53">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H4:H30">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H56">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:H59">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136:H146">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76:H90">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149:H150">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-4副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-4副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500"/>
+    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="1207">
   <si>
     <t>caseID</t>
   </si>
@@ -4480,6 +4480,14 @@
   </si>
   <si>
     <t>阿穆特测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没buff</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8302,7 +8310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -13810,8 +13818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -14153,7 +14161,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:8" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
         <v>231</v>
       </c>
@@ -14161,7 +14169,7 @@
       <c r="F33" s="59"/>
       <c r="G33" s="52"/>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="74" t="s">
         <v>15</v>
@@ -14181,7 +14189,7 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="74"/>
       <c r="C35" s="75"/>
@@ -14199,7 +14207,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="74"/>
       <c r="C36" s="75"/>
@@ -14213,7 +14221,7 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
@@ -14231,7 +14239,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
@@ -14245,7 +14253,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="74"/>
       <c r="C39" s="75"/>
@@ -14261,9 +14269,17 @@
       <c r="G39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I39" s="10">
+        <v>461</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="74"/>
       <c r="C40" s="75"/>
@@ -14277,7 +14293,7 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="74"/>
       <c r="C41" s="75"/>
@@ -14295,7 +14311,7 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="74"/>
       <c r="C42" s="75"/>
@@ -14309,7 +14325,7 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="74"/>
       <c r="C43" s="75"/>
@@ -14319,7 +14335,7 @@
       <c r="G43" s="71"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
@@ -14337,7 +14353,7 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74"/>
@@ -14351,7 +14367,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -14361,7 +14377,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>370</v>
       </c>
@@ -14371,7 +14387,7 @@
       <c r="G47" s="48"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="36"/>
       <c r="B48" s="36" t="s">
         <v>232</v>
@@ -14585,7 +14601,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>33</v>
@@ -14605,7 +14621,7 @@
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="8">
@@ -14618,9 +14634,14 @@
       <c r="G66" s="71" t="s">
         <v>852</v>
       </c>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I66" s="10">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="8"/>
@@ -14629,7 +14650,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
@@ -14649,7 +14670,7 @@
       </c>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="8"/>
@@ -14658,7 +14679,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>33</v>
@@ -14680,7 +14701,7 @@
       </c>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="8">
@@ -14695,7 +14716,7 @@
       </c>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="8">
@@ -14710,7 +14731,7 @@
       </c>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="8">
@@ -14725,7 +14746,7 @@
       </c>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="8"/>
@@ -14734,7 +14755,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>33</v>
@@ -14753,7 +14774,7 @@
       </c>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="11"/>
@@ -14767,7 +14788,7 @@
       </c>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="6"/>
       <c r="C77" s="10"/>
@@ -14781,7 +14802,7 @@
       </c>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
@@ -14793,7 +14814,7 @@
       </c>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
@@ -14805,7 +14826,7 @@
       </c>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
@@ -15206,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D113" s="6">
         <v>4</v>
       </c>
@@ -15217,7 +15238,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D114" s="6">
         <v>5</v>
       </c>
@@ -15228,7 +15249,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>15</v>
       </c>
@@ -15247,8 +15268,14 @@
       <c r="G116" s="16" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I116" s="6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E117" s="16"/>
       <c r="F117" s="15" t="s">
         <v>828</v>
@@ -15257,7 +15284,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E118" s="16"/>
       <c r="F118" s="15" t="s">
         <v>816</v>
@@ -15266,7 +15293,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D119" s="6">
         <v>2</v>
       </c>
@@ -15277,7 +15304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -15288,7 +15315,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>775</v>
       </c>
@@ -15308,7 +15335,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F123" s="11" t="s">
         <v>58</v>
       </c>
@@ -15316,7 +15343,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F124" s="11" t="s">
         <v>59</v>
       </c>
@@ -15324,7 +15351,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E125" s="6"/>
       <c r="F125" s="11" t="s">
         <v>60</v>
@@ -15333,14 +15360,14 @@
         <v>826</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F126" s="10"/>
       <c r="G126" s="66"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G127" s="66"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G128" s="11"/>
     </row>
   </sheetData>
